--- a/biology/Médecine/Gilbert_Ballet/Gilbert_Ballet.xlsx
+++ b/biology/Médecine/Gilbert_Ballet/Gilbert_Ballet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Gilbert Siméon Ballet, né le 29 mars 1853 à Ambazac (Haute-Vienne) et décédé à Paris le 17 mars 1916, est un neurologue, aliéniste, et historien de la médecine français.
 </t>
@@ -511,7 +523,9 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ballet a été formé par Jean-Martin Charcot, dont il était chef de clinique à l'Hôpital de la Salpêtrière. En 1904, il a créé le service de psychiatrie de Hôtel-Dieu à Paris et en 1907 il est nommé Professeur d'histoire de la médecine à la Faculté de médecine de Paris. En 1909, il est nommé titulaire de la chaire de clinique des maladies mentales et de l'encéphale à l'hôpital Sainte-Anne. La même année, il est élu président de la Société française d'histoire de la médecine.
 </t>
@@ -542,10 +556,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 30 janvier 1912, il est nommé à l'Académie des sciences.
-Il est l'auteur de travaux importants et nombreux dans le domaine de la neurologie et de la psychiatrie.En 1903 il publie un Traité de psychiatrie, premier traité moderne[1] de psychiatrie qui resta la principale référence francophone pendant près de cinquante ans. C'est également lui qui décrit et définit la psychose hallucinatoire chronique en 1911. Enfin, il publie différents travaux d'histoire de la médecine.
+Il est l'auteur de travaux importants et nombreux dans le domaine de la neurologie et de la psychiatrie.En 1903 il publie un Traité de psychiatrie, premier traité moderne de psychiatrie qui resta la principale référence francophone pendant près de cinquante ans. C'est également lui qui décrit et définit la psychose hallucinatoire chronique en 1911. Enfin, il publie différents travaux d'histoire de la médecine.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Recherches anatomiques et cliniques sur le faisceau sensitif et les troubles de la sensibilité dans les lésions du cerveau, A. Delahaye et E. Lecrosnier (Paris), 1881, 1 vol. (197 p.) ; in-8, lire en ligne sur Gallica.
 « Contribution à l'étude des réflexes tendineux : note sur l'état de la réflectivité spinale dans la fièvre typhoïde », in: "Progrès médical" (Paris), tiré à part: A. Delahaye &amp; E. Lecrosnier (Paris), 1882, 16 p., lire en ligne sur Gallica.
